--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9360" windowWidth="18671"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8735" windowWidth="19391"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,12 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
       <name val="宋体"/>
@@ -65,6 +60,35 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -72,7 +96,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,44 +165,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,56 +181,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,6 +203,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -220,175 +281,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -482,7 +483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,32 +499,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,31 +527,31 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
@@ -565,115 +560,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="15" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1048,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1229,7 +1224,7 @@
       </c>
       <c r="I4" s="0" t="n"/>
     </row>
-    <row customFormat="1" r="5" s="8">
+    <row customFormat="1" customHeight="1" ht="16" r="5" s="8">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
@@ -1585,7 +1580,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1633,7 +1628,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>excepted</t>
+          <t>expected_result</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
@@ -2024,8 +2019,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -752,6 +752,74 @@
     <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
